--- a/docs/StructureDefinition-ProcedureChemo.xlsx
+++ b/docs/StructureDefinition-ProcedureChemo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-25T15:07:05+08:00</t>
+    <t>2022-10-08T22:29:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -648,7 +648,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://wd.vghtpe.gov.tw"/&gt;
+    &lt;system value="https://www.vghtpe.gov.tw/Index.action"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
